--- a/data/GEO_upload_info/TKO-tumor-3-seq.xlsx
+++ b/data/GEO_upload_info/TKO-tumor-3-seq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smgroves/Documents/GitHub/Groves-CellSys2021/data/GEO_upload_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BD952D-A871-432F-85BE-1BC936FD43A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA528D5B-52F4-684B-986F-D8731ADCB860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1170" windowWidth="26205" windowHeight="13965"/>
+    <workbookView xWindow="820" yWindow="1180" windowWidth="17460" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA TEMPLATE " sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ledoux</author>
     <author>barrett</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -214,13 +214,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -228,13 +228,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -242,13 +242,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0">
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0">
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0" shapeId="0">
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L22" authorId="0" shapeId="0">
+    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -332,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0">
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -360,13 +360,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -374,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
+    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -388,45 +388,286 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="A39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">A Sequence Read Archive-specific field that describes the sequencing technique for this library. Please select one of the following terms:
-RNA-Seq
-miRNA-Seq
-ncRNA-Seq
-RNA-Seq (size fractionation)
-RNA-Seq (CAGE)
-RNA-Seq (RACE)
-ssRNA-seq
-ChIP-Seq
-MNase-Seq
-MBD-Seq
-MRE-Seq
-Bisulfite-Seq
-Bisulfite-Seq (reduced representation)
-MeDIP-Seq
-DNase-Hypersensitivity
-Tn-Seq
-FAIRE-seq
-SELEX
-RIP-Seq
-ATAC-seq
-ChIA-PET
-Hi-C
-OTHER: specify
 </t>
         </r>
-      </text>
-    </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">miRNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ncRNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (size fractionation)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (CAGE)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (RACE)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ssRNA-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ChIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MNase-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MBD-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MRE-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Bisulfite-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Bisulfite-Seq (reduced representation)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MeDIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DNase-Hypersensitivity
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tn-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">FAIRE-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SELEX
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ATAC-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ChIA-PET
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hi-C
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OTHER: specify
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -446,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0">
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0" shapeId="0">
+    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -506,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0" shapeId="0">
+    <comment ref="A48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0" shapeId="0">
+    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -541,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0" shapeId="0">
+    <comment ref="A50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0" shapeId="0">
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -570,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -585,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0" shapeId="0">
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -612,7 +853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -627,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D59" authorId="0" shapeId="0">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -690,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="0" shapeId="0">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -709,13 +950,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ledoux</author>
     <author>barrett</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -729,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -743,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -758,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -774,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -790,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -805,7 +1046,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -819,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -833,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -847,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -861,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -875,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -889,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -903,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -917,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="0" shapeId="0">
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -932,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L20" authorId="0" shapeId="0">
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -947,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="0" shapeId="0">
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -962,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N20" authorId="0" shapeId="0">
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -978,7 +1219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0" shapeId="0">
+    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -994,7 +1235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="0" shapeId="0">
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="1" shapeId="0">
+    <comment ref="A32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0" shapeId="0">
+    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
+    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
+    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1188,13 +1429,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1203,7 +1444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1218,7 +1459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1232,7 +1473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1247,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0" shapeId="0">
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1289,7 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
       <text>
         <r>
           <rPr>
@@ -1352,7 +1593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1371,13 +1612,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ledoux</author>
     <author>barrett</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1391,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1436,7 +1677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1452,7 +1693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1467,7 +1708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1481,7 +1722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1509,7 +1750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1523,7 +1764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1537,7 +1778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0" shapeId="0">
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1551,7 +1792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1565,7 +1806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0" shapeId="0">
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1579,7 +1820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0" shapeId="0">
+    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1594,7 +1835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0" shapeId="0">
+    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1609,7 +1850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="0" shapeId="0">
+    <comment ref="N23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1625,7 +1866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0" shapeId="0">
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1641,7 +1882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1655,7 +1896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0" shapeId="0">
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1669,7 +1910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0">
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1683,7 +1924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0">
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="1" shapeId="0">
+    <comment ref="A35" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1735,7 +1976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
+    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1755,7 +1996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1775,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0" shapeId="0">
+    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1795,7 +2036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1815,7 +2056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
+    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1835,7 +2076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0">
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1850,7 +2091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0" shapeId="0">
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1865,7 +2106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1879,7 +2120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1894,7 +2135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0" shapeId="0">
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1921,7 +2162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1936,7 +2177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1999,7 +2240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
       <text>
         <r>
           <rPr>
@@ -2018,7 +2259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="184">
   <si>
     <t>title</t>
   </si>
@@ -2105,21 +2346,6 @@
   </si>
   <si>
     <t xml:space="preserve">treatment protocol </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">characteristics: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tag</t>
-    </r>
   </si>
   <si>
     <t>Genome-wide maps of chromatin state in pluripotent and lineage-committed cells.</t>
@@ -2787,12 +3013,63 @@
       <t xml:space="preserve"> information is required. </t>
     </r>
   </si>
+  <si>
+    <t>Archetype tasks link intratumoral heterogeneity to plasticity in recalcitrant small cell lung cancer</t>
+  </si>
+  <si>
+    <t>Intratumoral heterogeneity underlies cancer treatment resistance, but approaches to neutralize it remain elusive. Here, we recast heterogeneity in a systems perspective that considers cancer cell functional tasks inherited from cells of origin. We apply Archetype Analysis to bulk transcriptomics data from small cell lung cancer (SCLC), which forms tumors composed of neuroendocrine (NE) and non-neuroendocrine (non-NE) transcriptional subtypes. SCLC subtypes fit well in a 5-dimensional polytope whose vertices optimize tasks reminiscent of pulmonary NE cells, the SCLC normal counterpart, and include injury repair, slithering, and chemosensation. SCLC cells near a vertex are specialists for a task, while more distant cells are generalists, bearing gene signatures of multiple archetypes. Evolutionary theory and dynamical systems modeling suggest a division of labor strategy for adaptation to treatment, based on task trade-offs amongst specialists and generalists. Cell Transport Potential, a metric derived from single-cell RNA velocity, uncovers plasticity trends from specialists to generalists, and NE to non-NE subtypes. Transcription factor network simulations indicate that MYC overexpression increases plasticity by de-stabilizing NE subtypes. Framing heterogeneity in archetype space provides insights into transformative cancer treatments aimed at tumor cell plasticity.</t>
+  </si>
+  <si>
+    <t>Sarah Groves</t>
+  </si>
+  <si>
+    <t>Vito Quaranta</t>
+  </si>
+  <si>
+    <t>Marisol Ramirez</t>
+  </si>
+  <si>
+    <t>Qi Liu</t>
+  </si>
+  <si>
+    <t>Julien Sage</t>
+  </si>
+  <si>
+    <t>scRNA-seq on1 triple knockout mouse model</t>
+  </si>
+  <si>
+    <t>TKO3</t>
+  </si>
+  <si>
+    <t>Small cell lung cancer cells</t>
+  </si>
+  <si>
+    <t>8-9 months</t>
+  </si>
+  <si>
+    <t>Mixed genetic background of C57BL/6, 129/SVJ and 129/SvOla</t>
+  </si>
+  <si>
+    <t>Rb-/-; Trp53-/-; Rbl2-/-; Rosa26membrane-Tomato or membrane-GFP</t>
+  </si>
+  <si>
+    <t>Cells for single cell RNA-seq were harvested 7 months after tumor induction by Adeno-CMV-cre.</t>
+  </si>
+  <si>
+    <t>Single cell capture and library generation was performed using the Chromium Single Cell Controller from 10x Genomics.</t>
+  </si>
+  <si>
+    <t>RNA-seq</t>
+  </si>
+  <si>
+    <t>Tumor was chopped and digested in 1ml of PBS containing 2mg/ml of Collagenase/Dispase (Roche) in a 37°C shaker for 45 minutes. Tumors were then cooled on ice, treated with 2.5μg/ml DNAse (Sigma) for 5 minutes and passed through a 40μm filter. Red blood cells were lysed and the sample was single cell-sorted by FACS.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2842,36 +3119,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2893,6 +3142,36 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333666"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2929,14 +3208,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2969,20 +3248,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3317,71 +3605,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="14"/>
   </sheetPr>
-  <dimension ref="A1:L231"/>
+  <dimension ref="A1:L232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="28.7109375" style="20"/>
+    <col min="1" max="1" width="42.1640625" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="28.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3390,912 +3678,958 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="39" t="s">
+        <v>167</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="40" t="s">
+        <v>168</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="41" t="s">
+        <v>174</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="35" t="s">
+        <v>169</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="35" t="s">
+        <v>170</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="35" t="s">
+        <v>171</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="35" t="s">
+        <v>173</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>172</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="14"/>
+    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="24"/>
       <c r="C17" s="7"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="11"/>
+    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="19" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="E23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>112</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>183</v>
+      </c>
       <c r="C37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="14"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
+    <row r="54" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B54" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C54" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-    </row>
-    <row r="55" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
+    <row r="57" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="12"/>
+    </row>
+    <row r="58" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="29"/>
+    </row>
+    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F61" s="24"/>
+    </row>
+    <row r="62" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="24"/>
+    </row>
+    <row r="63" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="29"/>
-    </row>
-    <row r="59" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="30"/>
-    </row>
-    <row r="60" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F60" s="24"/>
-    </row>
-    <row r="61" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F61" s="24"/>
-    </row>
-    <row r="62" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F62" s="24"/>
-    </row>
-    <row r="63" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29" t="s">
+    <row r="65" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="30" t="s">
+    <row r="66" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B66" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="27"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="27"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="27"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="27"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="27"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="27"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="27"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="27"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="27"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="27"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="27"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="27"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="27"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="27"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="27"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="27"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="27"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="27"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="27"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="27"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="27"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="27"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="27"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="27"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="27"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="27"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="27"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="27"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="27"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="27"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="27"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="27"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="27"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="27"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="27"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="27"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="27"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="27"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="27"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="27"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="27"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="27"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="27"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="27"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="27"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="27"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="27"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="27"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="27"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="27"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="27"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="27"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="27"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="27"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="27"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="27"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="27"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="27"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="27"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="27"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="27"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="27"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="27"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="27"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="27"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="27"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="27"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="27"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="27"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="27"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="27"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="27"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="27"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="27"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="27"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="27"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="27"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="27"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="27"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="27"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="27"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="27"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="27"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="27"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="27"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="27"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="27"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="27"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="27"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="27"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="27"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="27"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="27"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="27"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="27"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="27"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="27"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="27"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="27"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="27"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="27"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="27"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="27"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="27"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="27"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="27"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="27"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="27"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="27"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="27"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="27"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="27"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="27"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="27"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="27"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="27"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="27"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="27"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="27"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="27"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="27"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="27"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="27"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="27"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="27"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="27"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="27"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="27"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="27"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="27"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="27"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="27"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="27"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="27"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4306,7 +4640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4316,21 +4650,21 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="28.7109375" style="20"/>
+    <col min="1" max="1" width="42.1640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="28.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4338,9 +4672,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4348,9 +4682,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4358,9 +4692,9 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4368,7 +4702,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4376,7 +4710,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -4386,9 +4720,9 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4396,69 +4730,69 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="7"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="7"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="7"/>
@@ -4466,7 +4800,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="14"/>
       <c r="C15" s="7"/>
@@ -4474,7 +4808,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -4484,19 +4818,19 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -4507,7 +4841,7 @@
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>4</v>
       </c>
@@ -4521,19 +4855,19 @@
         <v>7</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>8</v>
@@ -4554,281 +4888,281 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="12" t="s">
+      <c r="F22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N22" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="17" t="s">
+      <c r="E23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M22" s="12" t="s">
+      <c r="F23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N23" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="E24" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="F24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="20" t="s">
+      <c r="L24" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M24" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="20" t="s">
+      <c r="N24" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="8"/>
@@ -4836,43 +5170,43 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="14"/>
       <c r="C45" s="8"/>
@@ -4880,17 +5214,17 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="30" t="s">
         <v>19</v>
       </c>
@@ -4901,102 +5235,102 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="B50" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="12" t="s">
+      <c r="B52" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
     </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="29"/>
     </row>
-    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="30" t="s">
         <v>19</v>
       </c>
@@ -5014,92 +5348,92 @@
       </c>
       <c r="F60" s="30"/>
     </row>
-    <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="B62" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
+      <c r="D62" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="B63" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="D63" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="D64" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F64" s="24"/>
     </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F65" s="24"/>
     </row>
-    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F66" s="24"/>
     </row>
-    <row r="67" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="30" t="s">
         <v>25</v>
       </c>
@@ -5107,492 +5441,492 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="27"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="27"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="27"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="27"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="27"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="27"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="27"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="27"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="27"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="27"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="27"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="27"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="27"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="27"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="27"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="27"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="27"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="27"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="27"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="27"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="27"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="27"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="27"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="27"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="27"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="27"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="27"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="27"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="27"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="27"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="27"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="27"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="27"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="27"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="27"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="27"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="27"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="27"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="27"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="27"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="27"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="27"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="27"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="27"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="27"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="27"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="27"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="27"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="27"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="27"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="27"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="27"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="27"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="27"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="27"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="27"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="27"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="27"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="27"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="27"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="27"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="27"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="27"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="27"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="27"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="27"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="27"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="27"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="27"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="27"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="27"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="27"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="27"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="27"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="27"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="27"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="27"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="27"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="27"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="27"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="27"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="27"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="27"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="27"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="27"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="27"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="27"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="27"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="27"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="27"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="27"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="27"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="27"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="27"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="27"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="27"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="27"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="27"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="27"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="27"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="27"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="27"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="27"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="27"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="27"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="27"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="27"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="27"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="27"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="27"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="27"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="27"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="27"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="27"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="27"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="27"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="27"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="27"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="27"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="27"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="27"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="27"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="27"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="27"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="27"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="27"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="27"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="27"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="27"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="27"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="27"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="27"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="27"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="27"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="27"/>
     </row>
   </sheetData>
@@ -5606,7 +5940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -5616,62 +5950,62 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="37.5703125" style="20" customWidth="1"/>
-    <col min="3" max="15" width="22.85546875" style="20" customWidth="1"/>
-    <col min="16" max="16384" width="37.5703125" style="20"/>
+    <col min="1" max="2" width="37.5" style="20" customWidth="1"/>
+    <col min="3" max="15" width="22.83203125" style="20" customWidth="1"/>
+    <col min="16" max="16384" width="37.5" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -5680,122 +6014,122 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="7"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="7"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="7"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -5804,19 +6138,19 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -5827,7 +6161,7 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
     </row>
-    <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>4</v>
       </c>
@@ -5841,22 +6175,22 @@
         <v>7</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>8</v>
@@ -5874,186 +6208,186 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O25" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P25" s="26"/>
     </row>
-    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N26" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O26" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N27" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="O27" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
@@ -6062,7 +6396,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
@@ -6071,144 +6405,144 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="14"/>
       <c r="C48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
         <v>19</v>
       </c>
@@ -6219,78 +6553,78 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="B54" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="12" t="s">
+      <c r="B55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
     </row>
-    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="29"/>
     </row>
-    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="30" t="s">
         <v>19</v>
       </c>
@@ -6308,162 +6642,162 @@
       </c>
       <c r="F60" s="30"/>
     </row>
-    <row r="61" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="33"/>
+    </row>
+    <row r="62" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="33"/>
+    </row>
+    <row r="63" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="33"/>
-    </row>
-    <row r="62" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="B63" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
+      <c r="D63" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="33"/>
+    </row>
+    <row r="64" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="B64" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="33"/>
-    </row>
-    <row r="64" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
+      <c r="D64" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="33"/>
+    </row>
+    <row r="65" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="B65" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="33"/>
-    </row>
-    <row r="65" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
+      <c r="D65" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="33"/>
+    </row>
+    <row r="66" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="B66" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="33"/>
-    </row>
-    <row r="66" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
+      <c r="D66" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="33"/>
+    </row>
+    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="B67" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="33"/>
-    </row>
-    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
+      <c r="D67" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="B68" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="D68" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F69" s="24"/>
     </row>
-    <row r="70" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="30" t="s">
         <v>25</v>
       </c>
@@ -6471,520 +6805,520 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="11" t="s">
+    </row>
+    <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
+      <c r="B76" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="27"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="27"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="27"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="27"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="27"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="27"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="27"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="27"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="27"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="27"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="27"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="27"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="27"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="27"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="27"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="27"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="27"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="27"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="27"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="27"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="27"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="27"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="27"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="27"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="27"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="27"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="27"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="27"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="27"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="27"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="27"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="27"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="27"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="27"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="27"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="27"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="27"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="27"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="27"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="27"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="27"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="27"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="27"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="27"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="27"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="27"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="27"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="27"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="27"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="27"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="27"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="27"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="27"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="27"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="27"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="27"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="27"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="27"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="27"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="27"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="27"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="27"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="27"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="27"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="27"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="27"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="27"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="27"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="27"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="27"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="27"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="27"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="27"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="27"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="27"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="27"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="27"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="27"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="27"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="27"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="27"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="27"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="27"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="27"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="27"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="27"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="27"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="27"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="27"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="27"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="27"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="27"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="27"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="27"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="27"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="27"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="27"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="27"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="27"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="27"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="27"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="27"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="27"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="27"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="27"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="27"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="27"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="27"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="27"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="27"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="27"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="27"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="27"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="27"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="27"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="27"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="27"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="27"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="27"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="27"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="27"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="27"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="27"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="27"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="27"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="27"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="27"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="27"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="27"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="27"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="27"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="27"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="27"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" s="27"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="27"/>
     </row>
   </sheetData>
